--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_0_18.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>997750.0469341382</v>
+        <v>1034054.098619896</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>196463.5118562736</v>
+        <v>239468.6422584138</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9662474.503279343</v>
+        <v>10850698.87543053</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8401994.634994522</v>
+        <v>7817662.70596674</v>
       </c>
     </row>
     <row r="11">
@@ -662,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -674,10 +676,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>20.75911149906594</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="W2" t="n">
-        <v>276.1565137023555</v>
+        <v>215.4108546636941</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>276.1565137023555</v>
+        <v>244.5627323611424</v>
       </c>
     </row>
     <row r="3">
@@ -735,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -753,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268739</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -792,16 +794,16 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>117.045910315367</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>159.6980106955148</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -835,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>86.23693751337954</v>
+        <v>44.19077295368341</v>
       </c>
       <c r="J4" t="n">
-        <v>88.89425643449839</v>
+        <v>92.89079271141465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -893,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="C5" t="n">
-        <v>290.5286403308947</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>231.863583504628</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>28.62722412876875</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.5310119231965</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553075</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250817</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229329</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>156.5912426325235</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>196.8897623984489</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8879277888686</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1060,22 +1062,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>18.37682225755695</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853697</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>82.68702246598916</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>77.14804664098608</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1178,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>20.75911149906585</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U8" t="n">
-        <v>110.1458031968987</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>276.1565137023555</v>
       </c>
     </row>
     <row r="9">
@@ -1209,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.5310119231965</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229386</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>156.5912426325231</v>
+        <v>161.4151008513906</v>
       </c>
       <c r="T9" t="n">
-        <v>196.8897623984489</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8879277888686</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1275,10 +1277,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1309,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>5.363104630273075</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>54.47555601903407</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>321.2889091872196</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>160.5713327074068</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1388,7 +1390,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1430,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1464,7 +1466,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I12" t="n">
         <v>61.42221998250818</v>
@@ -1497,7 +1499,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S12" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T12" t="n">
         <v>196.8897623984489</v>
@@ -1540,16 +1542,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>118.96213358952</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>9.275596830496628</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,16 +1572,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1607,22 +1609,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>63.37099713517599</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>339.0399185806814</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1664,13 +1666,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1856,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1889,22 +1891,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>4.55385834063773</v>
       </c>
       <c r="T17" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>178.5570454121777</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1935,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231958</v>
       </c>
       <c r="H18" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2053,19 +2055,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2081,10 +2083,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>275.4805812731078</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2093,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>339.039918580681</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2144,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2175,10 +2177,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H21" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553069</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2287,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>203.1609600883621</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>94.63926978364032</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2321,16 +2323,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>26.94389492651069</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2378,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>323.9918595228955</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2479,13 +2481,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>18.37682225755638</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>167.3098022590509</v>
@@ -2494,10 +2496,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923383</v>
+        <v>48.9140155965814</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2555,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2567,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>107.5435391652375</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2603,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>110.2883253154785</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2761,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>155.8860385675338</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2776,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>94.63926978364023</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2795,16 +2797,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>387.7413325106119</v>
+        <v>360.9888294615358</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2840,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2855,10 +2857,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229251</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -3004,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>155.2114886365804</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3041,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3080,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>66.23525597315229</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3190,16 +3192,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>8.389005322401335</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>62.95369569505461</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3253,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3266,16 +3268,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>413.784170020795</v>
@@ -3284,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3320,16 +3322,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>138.5973240860327</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>344.3310636953904</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3363,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3393,7 +3395,7 @@
         <v>49.71123688229332</v>
       </c>
       <c r="S36" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T36" t="n">
         <v>196.8897623984489</v>
@@ -3427,22 +3429,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>60.3823564508123</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>128.7835007017899</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H38" t="n">
-        <v>116.1866545624737</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3548,25 +3550,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3670,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>113.7145621736548</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3712,10 +3714,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3740,10 +3742,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3752,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>323.9918595228954</v>
+        <v>334.58170967322</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3901,19 +3903,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>70.80276983270103</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3949,16 +3951,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>94.63926978363978</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3989,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>269.5134569480836</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4031,10 +4033,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>18.28928943979423</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4189,10 +4191,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V46" t="n">
-        <v>94.63926978364034</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>322.0072940269172</v>
+        <v>266.5980815799443</v>
       </c>
       <c r="C2" t="n">
-        <v>322.0072940269172</v>
+        <v>266.5980815799443</v>
       </c>
       <c r="D2" t="n">
-        <v>322.0072940269172</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="E2" t="n">
-        <v>322.0072940269172</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="F2" t="n">
-        <v>322.0072940269172</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G2" t="n">
-        <v>322.0072940269172</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H2" t="n">
-        <v>43.06132059019444</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I2" t="n">
-        <v>22.09252109618844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J2" t="n">
-        <v>22.09252109618846</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K2" t="n">
-        <v>142.8373253438684</v>
+        <v>124.4399474973462</v>
       </c>
       <c r="L2" t="n">
-        <v>344.9085595412869</v>
+        <v>306.8231980260855</v>
       </c>
       <c r="M2" t="n">
-        <v>586.3582880173957</v>
+        <v>526.3662512024591</v>
       </c>
       <c r="N2" t="n">
-        <v>817.0829279823542</v>
+        <v>734.8297429586089</v>
       </c>
       <c r="O2" t="n">
-        <v>989.7620250901064</v>
+        <v>886.4882690646268</v>
       </c>
       <c r="P2" t="n">
-        <v>1099.465256491931</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="Q2" t="n">
-        <v>1104.626054809422</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="R2" t="n">
-        <v>1104.626054809422</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="S2" t="n">
-        <v>1104.626054809422</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="T2" t="n">
-        <v>879.8992409003627</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="U2" t="n">
-        <v>879.8992409003627</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="V2" t="n">
-        <v>879.8992409003627</v>
+        <v>731.2178664535166</v>
       </c>
       <c r="W2" t="n">
-        <v>600.9532674636399</v>
+        <v>513.6311445709973</v>
       </c>
       <c r="X2" t="n">
-        <v>600.9532674636399</v>
+        <v>513.6311445709973</v>
       </c>
       <c r="Y2" t="n">
-        <v>322.0072940269172</v>
+        <v>266.5980815799443</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>543.394254134402</v>
+        <v>648.7244705098402</v>
       </c>
       <c r="C3" t="n">
-        <v>368.941224853275</v>
+        <v>474.2714412287132</v>
       </c>
       <c r="D3" t="n">
-        <v>368.941224853275</v>
+        <v>325.3370315674619</v>
       </c>
       <c r="E3" t="n">
-        <v>368.941224853275</v>
+        <v>166.0995765620064</v>
       </c>
       <c r="F3" t="n">
-        <v>222.40666688016</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G3" t="n">
-        <v>222.40666688016</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H3" t="n">
-        <v>109.772397078701</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I3" t="n">
-        <v>22.09252109618844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J3" t="n">
-        <v>28.39914141318535</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K3" t="n">
-        <v>153.7567014710228</v>
+        <v>146.1858617037014</v>
       </c>
       <c r="L3" t="n">
-        <v>383.7198073393719</v>
+        <v>377.8476075409624</v>
       </c>
       <c r="M3" t="n">
-        <v>589.5939622148419</v>
+        <v>619.9647125784934</v>
       </c>
       <c r="N3" t="n">
-        <v>589.5939622148419</v>
+        <v>862.0818176160244</v>
       </c>
       <c r="O3" t="n">
-        <v>838.3473762988042</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="P3" t="n">
-        <v>1035.231496296093</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="Q3" t="n">
-        <v>1104.626054809422</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="R3" t="n">
-        <v>1104.626054809422</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="S3" t="n">
-        <v>1104.626054809422</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="T3" t="n">
-        <v>1104.626054809422</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="U3" t="n">
-        <v>986.3978625716775</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="V3" t="n">
-        <v>751.2457543399348</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="W3" t="n">
-        <v>751.2457543399348</v>
+        <v>816.9398075299082</v>
       </c>
       <c r="X3" t="n">
-        <v>543.394254134402</v>
+        <v>816.9398075299082</v>
       </c>
       <c r="Y3" t="n">
-        <v>543.394254134402</v>
+        <v>816.9398075299082</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>198.9927170031359</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="C4" t="n">
-        <v>198.9927170031359</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="D4" t="n">
-        <v>198.9927170031359</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="E4" t="n">
-        <v>198.9927170031359</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="F4" t="n">
-        <v>198.9927170031359</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="G4" t="n">
-        <v>198.9927170031359</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="H4" t="n">
-        <v>198.9927170031359</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="I4" t="n">
-        <v>111.8846993128535</v>
+        <v>113.3941021357749</v>
       </c>
       <c r="J4" t="n">
-        <v>22.09252109618844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K4" t="n">
-        <v>22.09252109618844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="L4" t="n">
-        <v>58.70189726492715</v>
+        <v>47.85425064936706</v>
       </c>
       <c r="M4" t="n">
-        <v>107.6904745160687</v>
+        <v>88.07040250863014</v>
       </c>
       <c r="N4" t="n">
-        <v>160.9488293168851</v>
+        <v>132.7649205860522</v>
       </c>
       <c r="O4" t="n">
-        <v>194.1252445754623</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="P4" t="n">
-        <v>198.9927170031359</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="Q4" t="n">
-        <v>198.9927170031359</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="R4" t="n">
-        <v>198.9927170031359</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="S4" t="n">
-        <v>198.9927170031359</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="T4" t="n">
-        <v>198.9927170031359</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="U4" t="n">
-        <v>198.9927170031359</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="V4" t="n">
-        <v>198.9927170031359</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="W4" t="n">
-        <v>198.9927170031359</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="X4" t="n">
-        <v>198.9927170031359</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="Y4" t="n">
-        <v>198.9927170031359</v>
+        <v>158.0312465334349</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1920.40991897829</v>
+        <v>286.9604071117565</v>
       </c>
       <c r="C5" t="n">
-        <v>1626.94664591678</v>
+        <v>286.9604071117565</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>286.9604071117565</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>286.9604071117565</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036447</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036447</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036447</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>135.7250809573683</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>330.2546714142364</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280443</v>
+        <v>563.3128681098028</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>785.5101925369335</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.84331964269</v>
+        <v>950.1371873885148</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018223</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018223</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018223</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018223</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018223</v>
+        <v>818.7624959030029</v>
       </c>
       <c r="X5" t="n">
-        <v>2697.149091018223</v>
+        <v>552.8614515073797</v>
       </c>
       <c r="Y5" t="n">
-        <v>2307.009759042412</v>
+        <v>552.8614515073797</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>788.8996395660675</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>614.4466102849406</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>465.5122006236894</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>306.2747456182339</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>159.7401876451189</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424005</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036447</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615929</v>
+        <v>154.3302328992136</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572649</v>
+        <v>384.2933387675627</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>644.9029523797129</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517454</v>
+        <v>860.9667611285688</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537798</v>
+        <v>860.9667611285688</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152627</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="U6" t="n">
-        <v>2061.714576167582</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>817.8160275749249</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>817.8160275749249</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>817.8160275749249</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237151</v>
+        <v>817.8160275749249</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064347</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064347</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="D7" t="n">
-        <v>728.1289842064347</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="E7" t="n">
-        <v>709.5665374816297</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="F7" t="n">
-        <v>562.6765899837193</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220517</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545818</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323009</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036447</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866327</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>54.48163939360305</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658211</v>
+        <v>100.1098670955241</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502503</v>
+        <v>150.08777394865</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594904</v>
+        <v>180.2341645716486</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064347</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064347</v>
+        <v>98.98668255551324</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064347</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064347</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064347</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064347</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064347</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064347</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064347</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064347</v>
+        <v>21.05936271613335</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1577.945354755379</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C8" t="n">
-        <v>1208.982837814967</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D8" t="n">
-        <v>850.7171392082163</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E8" t="n">
-        <v>464.928886609972</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F8" t="n">
-        <v>53.94298182036447</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036447</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036447</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036447</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>22.09252109618846</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>142.8373253438684</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>344.9085595412869</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>586.3582880173956</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977176</v>
+        <v>817.0829279823542</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>989.7620250901064</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>1099.465256491931</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>1083.657255315416</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862887</v>
+        <v>1083.657255315416</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862887</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="U8" t="n">
-        <v>2354.684526795312</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="V8" t="n">
-        <v>2354.684526795312</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="W8" t="n">
-        <v>2354.684526795312</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="X8" t="n">
-        <v>2354.684526795312</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="Y8" t="n">
-        <v>1964.5451948195</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036447</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>165.799003153448</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>411.954469746149</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>485.8202418432343</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>759.2151904085662</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>941.5804983938758</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>739.7005984219851</v>
       </c>
       <c r="U9" t="n">
-        <v>2061.714576167582</v>
+        <v>511.4819860561328</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>276.3298778243901</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="Y9" t="n">
-        <v>1156.713312237151</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036447</v>
+        <v>117.3019767171697</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036447</v>
+        <v>117.3019767171697</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036447</v>
+        <v>117.3019767171697</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036447</v>
+        <v>117.3019767171697</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036447</v>
+        <v>117.3019767171697</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036447</v>
+        <v>117.3019767171697</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036447</v>
+        <v>117.3019767171697</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036447</v>
+        <v>111.8846993128535</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036447</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>58.70189726492715</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>107.6904745160687</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>160.9488293168851</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>194.1252445754623</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600565</v>
+        <v>117.3019767171697</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942405</v>
+        <v>117.3019767171697</v>
       </c>
       <c r="S10" t="n">
-        <v>336.2769833124032</v>
+        <v>117.3019767171697</v>
       </c>
       <c r="T10" t="n">
-        <v>108.9687959810049</v>
+        <v>117.3019767171697</v>
       </c>
       <c r="U10" t="n">
-        <v>53.94298182036447</v>
+        <v>117.3019767171697</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036447</v>
+        <v>117.3019767171697</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036447</v>
+        <v>117.3019767171697</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036447</v>
+        <v>117.3019767171697</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036447</v>
+        <v>117.3019767171697</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1525.74665604171</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C11" t="n">
-        <v>1525.74665604171</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="D11" t="n">
-        <v>1525.74665604171</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E11" t="n">
-        <v>1363.553390680693</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F11" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G11" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H11" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5063,28 +5065,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W11" t="n">
-        <v>2289.351746278601</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X11" t="n">
-        <v>1915.885988017521</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y11" t="n">
-        <v>1525.74665604171</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H12" t="n">
         <v>115.9856282673424</v>
@@ -5121,22 +5123,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M12" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N12" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O12" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P12" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018222</v>
@@ -5145,16 +5147,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
         <v>1572.325111207638</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8405610245972</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8405610245972</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="D13" t="n">
-        <v>513.8405610245972</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="E13" t="n">
-        <v>513.8405610245972</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="F13" t="n">
-        <v>513.8405610245972</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="G13" t="n">
-        <v>393.6767897220517</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="H13" t="n">
-        <v>235.9284171545818</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="I13" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J13" t="n">
         <v>53.94298182036445</v>
@@ -5203,46 +5205,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S13" t="n">
-        <v>513.8405610245972</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T13" t="n">
-        <v>513.8405610245972</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U13" t="n">
-        <v>513.8405610245972</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="V13" t="n">
-        <v>513.8405610245972</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="W13" t="n">
-        <v>513.8405610245972</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="X13" t="n">
-        <v>513.8405610245972</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="Y13" t="n">
-        <v>513.8405610245972</v>
+        <v>108.9687959810045</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>863.1126181035243</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C14" t="n">
-        <v>799.1015098861748</v>
+        <v>1551.447402037877</v>
       </c>
       <c r="D14" t="n">
-        <v>799.1015098861748</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="E14" t="n">
-        <v>799.1015098861748</v>
+        <v>807.3934508328825</v>
       </c>
       <c r="F14" t="n">
-        <v>799.1015098861748</v>
+        <v>396.407546043275</v>
       </c>
       <c r="G14" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H14" t="n">
         <v>53.94298182036445</v>
@@ -5279,10 +5281,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5312,16 +5314,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V14" t="n">
-        <v>2366.086203674652</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W14" t="n">
-        <v>2013.317548404538</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X14" t="n">
-        <v>1639.851790143458</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y14" t="n">
-        <v>1249.712458167646</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="15">
@@ -5355,19 +5357,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L15" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O15" t="n">
         <v>2188.831293537797</v>
@@ -5379,7 +5381,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S15" t="n">
         <v>2488.762748073963</v>
@@ -5489,31 +5491,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>850.7171392082162</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="C17" t="n">
-        <v>850.7171392082162</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="D17" t="n">
-        <v>850.7171392082162</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="E17" t="n">
-        <v>464.928886609972</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F17" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
         <v>463.9616490733126</v>
@@ -5537,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018222</v>
+        <v>2637.52054463898</v>
       </c>
       <c r="T17" t="n">
-        <v>2478.514423990285</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="U17" t="n">
-        <v>2298.153772058793</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="V17" t="n">
-        <v>1967.090884715222</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="W17" t="n">
-        <v>1614.322229445108</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="X17" t="n">
-        <v>1240.856471184028</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y17" t="n">
-        <v>850.7171392082162</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="18">
@@ -5568,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C18" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J18" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L18" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M18" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
@@ -5631,10 +5633,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y18" t="n">
         <v>1156.713312237151</v>
@@ -5647,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
@@ -5701,22 +5703,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>571.3497027553424</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V19" t="n">
-        <v>571.3497027553424</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W19" t="n">
-        <v>281.9325327183818</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1546.944160717209</v>
+        <v>1920.409918978288</v>
       </c>
       <c r="C20" t="n">
-        <v>1546.944160717209</v>
+        <v>1551.447402037877</v>
       </c>
       <c r="D20" t="n">
-        <v>1268.68094731003</v>
+        <v>1193.181703431126</v>
       </c>
       <c r="E20" t="n">
-        <v>882.8926947117852</v>
+        <v>807.3934508328821</v>
       </c>
       <c r="F20" t="n">
-        <v>471.9067899221776</v>
+        <v>396.4075460432745</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J20" t="n">
         <v>169.7108380533141</v>
@@ -5792,10 +5794,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="X20" t="n">
-        <v>2323.683332757143</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y20" t="n">
-        <v>1933.544000781331</v>
+        <v>2307.00975904241</v>
       </c>
     </row>
     <row r="21">
@@ -5805,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C21" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J21" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L21" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M21" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018222</v>
@@ -5868,10 +5870,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y21" t="n">
         <v>1156.713312237151</v>
@@ -5884,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
@@ -5935,25 +5937,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U22" t="n">
-        <v>438.9553738610022</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V22" t="n">
-        <v>438.9553738610022</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="W22" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1219.679656148628</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C23" t="n">
-        <v>850.7171392082162</v>
+        <v>825.2129885066831</v>
       </c>
       <c r="D23" t="n">
-        <v>850.7171392082162</v>
+        <v>466.9472898999326</v>
       </c>
       <c r="E23" t="n">
-        <v>464.928886609972</v>
+        <v>81.15903730168839</v>
       </c>
       <c r="F23" t="n">
-        <v>53.94298182036445</v>
+        <v>81.15903730168839</v>
       </c>
       <c r="G23" t="n">
         <v>53.94298182036445</v>
@@ -6026,13 +6028,13 @@
         <v>2697.149091018222</v>
       </c>
       <c r="W23" t="n">
-        <v>2369.884586449641</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X23" t="n">
-        <v>1996.418828188561</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y23" t="n">
-        <v>1606.27949621275</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H24" t="n">
         <v>115.9856282673424</v>
@@ -6069,10 +6071,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K24" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M24" t="n">
         <v>1194.968834417902</v>
@@ -6087,28 +6089,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X24" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y24" t="n">
         <v>1156.713312237151</v>
@@ -6127,22 +6129,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="D25" t="n">
-        <v>728.1289842064342</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E25" t="n">
-        <v>709.5665374816298</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F25" t="n">
-        <v>562.6765899837194</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="G25" t="n">
-        <v>393.6767897220518</v>
+        <v>261.0994509500377</v>
       </c>
       <c r="H25" t="n">
-        <v>235.9284171545819</v>
+        <v>103.3510783825679</v>
       </c>
       <c r="I25" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
         <v>53.94298182036445</v>
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>850.7171392082162</v>
+        <v>1328.309493689272</v>
       </c>
       <c r="C26" t="n">
-        <v>850.7171392082162</v>
+        <v>959.3469767488602</v>
       </c>
       <c r="D26" t="n">
-        <v>850.7171392082162</v>
+        <v>959.3469767488602</v>
       </c>
       <c r="E26" t="n">
-        <v>464.928886609972</v>
+        <v>573.5587241506159</v>
       </c>
       <c r="F26" t="n">
-        <v>53.94298182036445</v>
+        <v>162.5728193610084</v>
       </c>
       <c r="G26" t="n">
         <v>53.94298182036445</v>
@@ -6227,10 +6229,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6251,25 +6253,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S26" t="n">
-        <v>2585.746742214709</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T26" t="n">
-        <v>2585.746742214709</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U26" t="n">
-        <v>2331.9849568528</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V26" t="n">
-        <v>2000.922069509229</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W26" t="n">
-        <v>2000.922069509229</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="X26" t="n">
-        <v>1627.45631124815</v>
+        <v>2105.048665729205</v>
       </c>
       <c r="Y26" t="n">
-        <v>1237.316979272338</v>
+        <v>1714.909333753394</v>
       </c>
     </row>
     <row r="27">
@@ -6279,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036422</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>129.200144220494</v>
       </c>
       <c r="K27" t="n">
-        <v>266.2060027641994</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M27" t="n">
         <v>1194.968834417902</v>
@@ -6324,22 +6326,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207638</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N28" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O28" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>2697.149091018222</v>
+        <v>570.6683391887233</v>
       </c>
       <c r="T28" t="n">
-        <v>2697.149091018222</v>
+        <v>343.360151857325</v>
       </c>
       <c r="U28" t="n">
-        <v>2407.975480672791</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V28" t="n">
-        <v>2407.975480672791</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W28" t="n">
-        <v>2118.55831063583</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1172.829108994407</v>
+        <v>1584.314837422907</v>
       </c>
       <c r="C29" t="n">
-        <v>803.8665920539956</v>
+        <v>1215.352320482495</v>
       </c>
       <c r="D29" t="n">
-        <v>445.6008934472451</v>
+        <v>1215.352320482495</v>
       </c>
       <c r="E29" t="n">
-        <v>445.6008934472451</v>
+        <v>829.5640678842506</v>
       </c>
       <c r="F29" t="n">
-        <v>445.6008934472451</v>
+        <v>418.578163094643</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
         <v>169.7108380533141</v>
@@ -6467,7 +6469,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6488,25 +6490,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2520.971603332392</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T29" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U29" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V29" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W29" t="n">
-        <v>1949.568281034341</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X29" t="n">
-        <v>1949.568281034341</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y29" t="n">
-        <v>1559.428949058529</v>
+        <v>1970.914677487028</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6539,31 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K30" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L30" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M30" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N30" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O30" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R30" t="n">
         <v>2646.935720430048</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K31" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L31" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M31" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U31" t="n">
-        <v>598.0446400632119</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V31" t="n">
-        <v>343.360151857325</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W31" t="n">
-        <v>53.94298182036444</v>
+        <v>2407.731920981262</v>
       </c>
       <c r="X31" t="n">
-        <v>53.94298182036444</v>
+        <v>2179.742370083244</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1268.68094731003</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C32" t="n">
-        <v>1268.68094731003</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D32" t="n">
-        <v>1268.68094731003</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E32" t="n">
-        <v>882.8926947117852</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F32" t="n">
-        <v>471.9067899221776</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G32" t="n">
         <v>53.94298182036445</v>
@@ -6701,16 +6703,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
@@ -6728,22 +6730,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T32" t="n">
-        <v>2630.244792055442</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U32" t="n">
-        <v>2376.483006693534</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V32" t="n">
-        <v>2045.420119349963</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W32" t="n">
-        <v>2045.420119349963</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X32" t="n">
-        <v>2045.420119349963</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y32" t="n">
-        <v>1655.280787374151</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="33">
@@ -6753,40 +6755,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
         <v>1748.695370517453</v>
@@ -6798,28 +6800,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y33" t="n">
         <v>1156.713312237151</v>
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2476.356511874692</v>
+        <v>2191.96288889382</v>
       </c>
       <c r="C34" t="n">
-        <v>2476.356511874692</v>
+        <v>2191.96288889382</v>
       </c>
       <c r="D34" t="n">
-        <v>2326.239872462357</v>
+        <v>2191.96288889382</v>
       </c>
       <c r="E34" t="n">
-        <v>2178.326778879964</v>
+        <v>2191.96288889382</v>
       </c>
       <c r="F34" t="n">
-        <v>2031.436831382053</v>
+        <v>2191.96288889382</v>
       </c>
       <c r="G34" t="n">
         <v>2022.963088632153</v>
@@ -6880,28 +6882,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.149091018222</v>
+        <v>2633.559499407056</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.149091018222</v>
+        <v>2419.271076225219</v>
       </c>
       <c r="T34" t="n">
-        <v>2697.149091018222</v>
+        <v>2191.96288889382</v>
       </c>
       <c r="U34" t="n">
-        <v>2697.149091018222</v>
+        <v>2191.96288889382</v>
       </c>
       <c r="V34" t="n">
-        <v>2697.149091018222</v>
+        <v>2191.96288889382</v>
       </c>
       <c r="W34" t="n">
-        <v>2697.149091018222</v>
+        <v>2191.96288889382</v>
       </c>
       <c r="X34" t="n">
-        <v>2697.149091018222</v>
+        <v>2191.96288889382</v>
       </c>
       <c r="Y34" t="n">
-        <v>2476.356511874692</v>
+        <v>2191.96288889382</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1199.13500546934</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="C35" t="n">
-        <v>830.1724885289282</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D35" t="n">
-        <v>471.9067899221776</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E35" t="n">
-        <v>471.9067899221776</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F35" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I35" t="n">
         <v>53.94298182036445</v>
@@ -6941,7 +6943,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6968,19 +6970,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U35" t="n">
-        <v>2697.149091018222</v>
+        <v>2557.151793961624</v>
       </c>
       <c r="V35" t="n">
-        <v>2697.149091018222</v>
+        <v>2557.151793961624</v>
       </c>
       <c r="W35" t="n">
-        <v>2349.339935770353</v>
+        <v>2557.151793961624</v>
       </c>
       <c r="X35" t="n">
-        <v>1975.874177509273</v>
+        <v>2557.151793961624</v>
       </c>
       <c r="Y35" t="n">
-        <v>1585.734845533462</v>
+        <v>2167.012461985812</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I36" t="n">
         <v>53.94298182036445</v>
@@ -7017,16 +7019,16 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O36" t="n">
         <v>2188.831293537797</v>
@@ -7041,16 +7043,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>728.1289842064342</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C37" t="n">
-        <v>728.1289842064342</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D37" t="n">
-        <v>578.0123447940985</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E37" t="n">
-        <v>517.0200655508537</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F37" t="n">
-        <v>517.0200655508537</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G37" t="n">
-        <v>348.0202652891861</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H37" t="n">
-        <v>190.2718927217162</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K37" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L37" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M37" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U37" t="n">
-        <v>728.1289842064342</v>
+        <v>2567.064746875</v>
       </c>
       <c r="V37" t="n">
-        <v>728.1289842064342</v>
+        <v>2312.380258669114</v>
       </c>
       <c r="W37" t="n">
-        <v>728.1289842064342</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X37" t="n">
-        <v>728.1289842064342</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y37" t="n">
-        <v>728.1289842064342</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1702.283515201396</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C38" t="n">
-        <v>1333.320998260984</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D38" t="n">
-        <v>975.0552996542337</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E38" t="n">
-        <v>589.2670470559895</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F38" t="n">
-        <v>589.2670470559895</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G38" t="n">
-        <v>171.3032389541763</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H38" t="n">
         <v>53.94298182036445</v>
@@ -7172,7 +7174,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
         <v>463.9616490733126</v>
@@ -7196,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T38" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U38" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V38" t="n">
-        <v>2092.422847177208</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W38" t="n">
-        <v>2092.422847177208</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X38" t="n">
-        <v>2092.422847177208</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y38" t="n">
-        <v>1702.283515201396</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="39">
@@ -7254,7 +7256,7 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
         <v>670.8219208598713</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2442.464602812336</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C40" t="n">
-        <v>2442.464602812336</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D40" t="n">
-        <v>2442.464602812336</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E40" t="n">
-        <v>2442.464602812336</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F40" t="n">
-        <v>2295.574655314425</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G40" t="n">
-        <v>2180.711461199623</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K40" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N40" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O40" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>2697.149091018222</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U40" t="n">
-        <v>2697.149091018222</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V40" t="n">
-        <v>2442.464602812336</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W40" t="n">
-        <v>2442.464602812336</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X40" t="n">
-        <v>2442.464602812336</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y40" t="n">
-        <v>2442.464602812336</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="41">
@@ -7388,16 +7390,16 @@
         <v>1546.944160717209</v>
       </c>
       <c r="C41" t="n">
-        <v>1177.981643776797</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="D41" t="n">
-        <v>1177.981643776797</v>
+        <v>1188.678462110459</v>
       </c>
       <c r="E41" t="n">
-        <v>792.1933911785532</v>
+        <v>802.8902095122144</v>
       </c>
       <c r="F41" t="n">
-        <v>381.2074863889456</v>
+        <v>391.9043047226068</v>
       </c>
       <c r="G41" t="n">
         <v>53.94298182036445</v>
@@ -7409,13 +7411,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7506,7 +7508,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018223</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C43" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D43" t="n">
-        <v>2022.963088632153</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E43" t="n">
-        <v>2022.963088632153</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F43" t="n">
-        <v>2022.963088632153</v>
+        <v>283.209303713795</v>
       </c>
       <c r="G43" t="n">
-        <v>2022.963088632153</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K43" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N43" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O43" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>2601.553869014546</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>2312.380258669114</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V43" t="n">
-        <v>2312.380258669114</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W43" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X43" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y43" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1219.679656148628</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C44" t="n">
-        <v>850.7171392082162</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D44" t="n">
-        <v>850.7171392082162</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E44" t="n">
-        <v>464.928886609972</v>
+        <v>737.1647017090463</v>
       </c>
       <c r="F44" t="n">
-        <v>53.94298182036445</v>
+        <v>326.1787969194388</v>
       </c>
       <c r="G44" t="n">
         <v>53.94298182036445</v>
@@ -7646,7 +7648,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
         <v>463.9616490733126</v>
@@ -7679,19 +7681,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U44" t="n">
-        <v>2388.358616186807</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V44" t="n">
-        <v>2369.884586449641</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W44" t="n">
-        <v>2369.884586449641</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X44" t="n">
-        <v>1996.418828188561</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y44" t="n">
-        <v>1606.27949621275</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="45">
@@ -7701,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C45" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E45" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G45" t="n">
         <v>221.4284102424006</v>
@@ -7728,40 +7730,40 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L45" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M45" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N45" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O45" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P45" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7837,7 +7839,7 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U46" t="n">
-        <v>438.9553738610022</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V46" t="n">
         <v>343.360151857325</v>
@@ -8064,19 +8066,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>350.0877257154224</v>
+        <v>386.6967662831607</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>375.9044444444757</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>258.0586303207525</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8301,19 +8303,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>405.3760678736852</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>349.5879835468241</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>133.6630807868109</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8538,19 +8540,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>197.6593378372518</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>407.4982257856888</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747164</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8787,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9003,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9243,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9480,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -10188,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.64146763747075</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10437,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>435.9238900028826</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10665,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10902,10 +10904,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>145.0294169142015</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11154,10 +11156,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11315,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11376,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142015</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22550,7 +22552,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>110.1203092595406</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22559,16 +22561,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>415.1619485273195</v>
+        <v>415.2879682170718</v>
       </c>
       <c r="H2" t="n">
-        <v>61.87643319194535</v>
+        <v>339.3235460419765</v>
       </c>
       <c r="I2" t="n">
-        <v>184.2890106185799</v>
+        <v>209.9064962068211</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>10.69576364311372</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22589,31 +22591,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>8.395781178313161</v>
       </c>
       <c r="R2" t="n">
-        <v>141.0252816852793</v>
+        <v>148.9413660216818</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8118405263978</v>
+        <v>208.6835142066282</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0311969618593</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3343897888113</v>
+        <v>251.3444713639914</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>83.18952610899251</v>
       </c>
       <c r="W2" t="n">
-        <v>73.08445501505753</v>
+        <v>133.8301140537189</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>110.0814249536981</v>
+        <v>141.6752062949112</v>
       </c>
     </row>
     <row r="3">
@@ -22623,28 +22625,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2681884137393</v>
+        <v>137.3356148920818</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.1591249337519</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.12455904281175</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22671,25 +22673,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>95.48084390037957</v>
+        <v>99.6672001609758</v>
       </c>
       <c r="S3" t="n">
-        <v>170.2839726213331</v>
+        <v>171.5363898835276</v>
       </c>
       <c r="T3" t="n">
-        <v>199.8611009721718</v>
+        <v>200.1328769967189</v>
       </c>
       <c r="U3" t="n">
-        <v>108.8905159268268</v>
+        <v>225.9408621947163</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>91.99697246540484</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22717,19 +22719,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9278262653587</v>
+        <v>167.9843543597988</v>
       </c>
       <c r="H4" t="n">
-        <v>161.6656840978772</v>
+        <v>162.1682702466266</v>
       </c>
       <c r="I4" t="n">
-        <v>67.31435166865141</v>
+        <v>111.0604701956922</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.93225064571201</v>
+        <v>21.49978743611831</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,22 +22746,22 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1.920177260816417</v>
       </c>
       <c r="Q4" t="n">
-        <v>80.87383288310646</v>
+        <v>85.60728995481479</v>
       </c>
       <c r="R4" t="n">
-        <v>174.4537986637794</v>
+        <v>176.9955073465141</v>
       </c>
       <c r="S4" t="n">
-        <v>222.9160118599466</v>
+        <v>223.9011423785076</v>
       </c>
       <c r="T4" t="n">
-        <v>227.6757534850358</v>
+        <v>227.9172826158254</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3155846423218</v>
+        <v>286.3186679929276</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22781,31 +22783,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>119.4918077118137</v>
       </c>
       <c r="C5" t="n">
-        <v>74.74425144011281</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>143.6340117900446</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>415.2102214038314</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>206.9091621893709</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>4.097100052852072</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22829,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481165</v>
+        <v>144.0576027644701</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>117.377385212785</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>106.4890667268022</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22860,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>137.9059595210986</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -22878,10 +22880,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>87.69233988828962</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22908,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>97.08446202703753</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22948,25 +22950,25 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>128.0571403890122</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>161.8582038473137</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>154.2024705022107</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>90.42516245839141</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>17.44799951871611</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22984,19 +22986,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491427</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>98.27937439571028</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>223.2933741908973</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>227.7682732010226</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23018,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>415.1619485273195</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>120.2661701862135</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>141.0783643113907</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>51.59574476777942</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>73.08445501505753</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>110.0814249536981</v>
       </c>
     </row>
     <row r="9">
@@ -23097,28 +23099,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23145,10 +23147,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>8.868871769942501</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -23163,10 +23165,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23191,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>148.1881845517579</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23224,16 +23226,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U10" t="n">
-        <v>231.8063182229437</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23255,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>43.98398258378791</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>221.359037364855</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23276,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
@@ -23318,10 +23320,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23428,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>48.34766866953092</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>125.6900249618416</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23458,16 +23460,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2818742419777</v>
@@ -23495,22 +23497,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>301.9018946358316</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>74.74425144011354</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
         <v>151.9313162448613</v>
@@ -23552,13 +23554,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23729,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23744,7 +23746,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
@@ -23777,22 +23779,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>169.8618544683338</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>72.66712209611163</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23941,19 +23943,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>69.82361682150338</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23969,10 +23971,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>79.2024603475752</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23981,7 +23983,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>74.744251440114</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
@@ -24032,7 +24034,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24175,22 +24177,22 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>83.12091415361562</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>131.0703856053968</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24209,16 +24211,16 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>386.8402750942843</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24266,7 +24268,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>25.24910919451753</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24367,13 +24369,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>128.0571403890128</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,10 +24384,10 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>86.05160619575685</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24443,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24455,7 +24457,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>306.2406308555575</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -24491,16 +24493,16 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S26" t="n">
-        <v>64.12738749349305</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24649,13 +24651,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>56.2595003824851</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>131.0703856053969</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24683,16 +24685,16 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>26.04283751018312</v>
+        <v>52.79534055925922</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -24728,10 +24730,10 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
         <v>251.2241675082893</v>
@@ -24743,10 +24745,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24892,19 +24894,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>63.37316471551443</v>
       </c>
     </row>
     <row r="32">
@@ -24917,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24929,7 +24931,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
@@ -24968,19 +24970,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>150.2130643845055</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25078,16 +25080,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>158.9207969366496</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>156.1708888417951</v>
@@ -25120,13 +25122,13 @@
         <v>29.12274995491431</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>83.71149628510325</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2818742419777</v>
@@ -25141,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25154,16 +25156,16 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25172,7 +25174,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25208,16 +25210,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>112.6268434222566</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>4.909905022022656</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25315,22 +25317,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>86.05160619575688</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J37" t="n">
         <v>45.19995918853701</v>
@@ -25366,13 +25368,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401879</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25388,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H38" t="n">
-        <v>207.7361182018834</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
         <v>151.9313162448613</v>
@@ -25436,25 +25438,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25558,13 +25560,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>53.59524008539614</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
         <v>134.9656217923383</v>
@@ -25600,10 +25602,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>96.01048066168096</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25628,10 +25630,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25640,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>89.79231049789962</v>
+        <v>79.20246034757503</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -25789,19 +25791,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>96.50703242634988</v>
       </c>
       <c r="H43" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>134.9656217923383</v>
@@ -25837,16 +25839,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>130.3958356744445</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25877,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>144.2707130727114</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
@@ -25919,10 +25921,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>309.4629690303407</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -26077,10 +26079,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V46" t="n">
-        <v>157.4983735401877</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>460672.766074693</v>
+        <v>435032.5070423359</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>751796.7860409702</v>
+        <v>450684.3915209945</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>751796.7860409702</v>
+        <v>460672.7660746929</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>751796.7860409702</v>
+        <v>751796.7860409701</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>751796.7860409701</v>
+        <v>751796.7860409699</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>751796.7860409702</v>
+        <v>751796.7860409701</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>751796.7860409702</v>
+        <v>751796.7860409701</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>751796.7860409701</v>
+        <v>751796.7860409702</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>751796.7860409702</v>
+        <v>751796.7860409699</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>751796.7860409702</v>
+        <v>751796.7860409699</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>751796.7860409699</v>
+        <v>751796.7860409702</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>751796.7860409701</v>
+        <v>751796.7860409699</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>150588.1755146547</v>
+      </c>
+      <c r="C2" t="n">
+        <v>156006.135526498</v>
+      </c>
+      <c r="D2" t="n">
         <v>159463.6497950858</v>
-      </c>
-      <c r="C2" t="n">
-        <v>260237.3490141817</v>
-      </c>
-      <c r="D2" t="n">
-        <v>260237.3490141817</v>
       </c>
       <c r="E2" t="n">
         <v>260237.3490141817</v>
@@ -26329,13 +26331,13 @@
         <v>260237.3490141816</v>
       </c>
       <c r="H2" t="n">
-        <v>260237.3490141816</v>
+        <v>260237.3490141815</v>
       </c>
       <c r="I2" t="n">
         <v>260237.3490141816</v>
       </c>
       <c r="J2" t="n">
-        <v>260237.3490141816</v>
+        <v>260237.3490141817</v>
       </c>
       <c r="K2" t="n">
         <v>260237.3490141816</v>
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>126293.341446813</v>
+        <v>85498.77860120904</v>
       </c>
       <c r="C3" t="n">
-        <v>440708.0835147459</v>
+        <v>23645.3401818954</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>14295.33970214116</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>394217.2929137604</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>72254.6948711391</v>
+        <v>63988.37154589874</v>
       </c>
       <c r="K3" t="n">
-        <v>102466.1171957467</v>
+        <v>4807.454491750106</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>3268.538594581528</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>99215.77767884448</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>182.2467736288815</v>
+      </c>
+      <c r="C4" t="n">
+        <v>196.6176664714449</v>
+      </c>
+      <c r="D4" t="n">
         <v>206.5374179011836</v>
-      </c>
-      <c r="C4" t="n">
-        <v>513.1084990597037</v>
-      </c>
-      <c r="D4" t="n">
-        <v>513.1084990597036</v>
       </c>
       <c r="E4" t="n">
         <v>513.1084990597035</v>
@@ -26442,7 +26444,7 @@
         <v>513.1084990597035</v>
       </c>
       <c r="K4" t="n">
-        <v>513.1084990597034</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="L4" t="n">
         <v>513.1084990597035</v>
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>48577.10433863014</v>
+      </c>
+      <c r="C5" t="n">
+        <v>50134.40740683336</v>
+      </c>
+      <c r="D5" t="n">
         <v>51181.37951678014</v>
-      </c>
-      <c r="C5" t="n">
-        <v>82859.07806340948</v>
-      </c>
-      <c r="D5" t="n">
-        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>49231.47806340946</v>
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-18217.60858640849</v>
+        <v>16330.04580118664</v>
       </c>
       <c r="C6" t="n">
-        <v>-263842.9210630333</v>
+        <v>82029.77027129779</v>
       </c>
       <c r="D6" t="n">
-        <v>176865.1624517125</v>
+        <v>93780.39315826335</v>
       </c>
       <c r="E6" t="n">
-        <v>210492.7624517125</v>
+        <v>-183724.5304620479</v>
       </c>
       <c r="F6" t="n">
         <v>210492.7624517125</v>
@@ -26537,25 +26539,25 @@
         <v>210492.7624517124</v>
       </c>
       <c r="H6" t="n">
-        <v>210492.7624517125</v>
+        <v>210492.7624517124</v>
       </c>
       <c r="I6" t="n">
         <v>210492.7624517124</v>
       </c>
       <c r="J6" t="n">
-        <v>138238.0675805733</v>
+        <v>146504.3909058138</v>
       </c>
       <c r="K6" t="n">
-        <v>108026.6452559658</v>
+        <v>205685.3079599623</v>
       </c>
       <c r="L6" t="n">
-        <v>210492.7624517124</v>
+        <v>207224.2238571309</v>
       </c>
       <c r="M6" t="n">
-        <v>210492.7624517124</v>
+        <v>111276.9847728679</v>
       </c>
       <c r="N6" t="n">
-        <v>210492.7624517124</v>
+        <v>210492.7624517123</v>
       </c>
       <c r="O6" t="n">
         <v>210492.7624517124</v>
@@ -26735,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>3.673862893242319</v>
+      </c>
+      <c r="C3" t="n">
+        <v>23.01338268678962</v>
+      </c>
+      <c r="D3" t="n">
         <v>35.02126071912534</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170869</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170868</v>
-      </c>
       <c r="E3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
         <v>377.7436642170867</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>244.5627323611424</v>
+      </c>
+      <c r="C4" t="n">
+        <v>263.2420339516669</v>
+      </c>
+      <c r="D4" t="n">
         <v>276.1565137023555</v>
-      </c>
-      <c r="C4" t="n">
-        <v>674.2872727545558</v>
-      </c>
-      <c r="D4" t="n">
-        <v>674.2872727545558</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545556</v>
@@ -26802,10 +26804,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="I4" t="n">
         <v>674.2872727545556</v>
@@ -26814,7 +26816,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
         <v>674.2872727545556</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912534</v>
+        <v>3.673862893242319</v>
       </c>
       <c r="C3" t="n">
-        <v>342.7224034979615</v>
+        <v>19.3395197935473</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>12.00787803233572</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>342.7224034979613</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023555</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="C4" t="n">
-        <v>398.1307590522003</v>
+        <v>18.67930159052449</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>12.9144797506886</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>398.1307590522001</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023555</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="K4" t="n">
-        <v>398.1307590522002</v>
+        <v>18.67930159052449</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>12.9144797506886</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>398.1307590522001</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023555</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="K4" t="n">
-        <v>398.1307590522003</v>
+        <v>18.67930159052449</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>12.9144797506886</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>398.1307590522001</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1407889878155791</v>
+        <v>0.01476929806328569</v>
       </c>
       <c r="H2" t="n">
-        <v>1.4418552214663</v>
+        <v>0.1512560737906247</v>
       </c>
       <c r="I2" t="n">
-        <v>5.42776745276012</v>
+        <v>0.5693933635848223</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>1.253525711498795</v>
       </c>
       <c r="K2" t="n">
-        <v>17.90888720884599</v>
+        <v>1.878710098517679</v>
       </c>
       <c r="L2" t="n">
-        <v>22.21755819470702</v>
+        <v>2.330706004121959</v>
       </c>
       <c r="M2" t="n">
-        <v>24.72131435677233</v>
+        <v>2.593359508554916</v>
       </c>
       <c r="N2" t="n">
-        <v>25.12133106840334</v>
+        <v>2.635322776677227</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72136057081218</v>
+        <v>2.488460569060429</v>
       </c>
       <c r="P2" t="n">
-        <v>20.24563243411507</v>
+        <v>2.123843523123063</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.20362680796963</v>
+        <v>1.594918036231644</v>
       </c>
       <c r="R2" t="n">
-        <v>8.84383625587038</v>
+        <v>0.9277519194678708</v>
       </c>
       <c r="S2" t="n">
-        <v>3.208229059847513</v>
+        <v>0.3365553796171231</v>
       </c>
       <c r="T2" t="n">
-        <v>0.616303794162698</v>
+        <v>0.06465260227203316</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01126311902524633</v>
+        <v>0.001181543845062855</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,22 +31120,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0753287494713262</v>
+        <v>0.007902271128860838</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7275171330520189</v>
+        <v>0.07631930274452442</v>
       </c>
       <c r="I3" t="n">
-        <v>2.593555628727679</v>
+        <v>0.2720738086033228</v>
       </c>
       <c r="J3" t="n">
-        <v>7.116914878779991</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.276043491891533</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.715797948395859</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -31142,25 +31144,25 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.880151324242605</v>
       </c>
       <c r="P3" t="n">
-        <v>14.38448725650263</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>4.676990252263571</v>
+        <v>0.4906339916673424</v>
       </c>
       <c r="S3" t="n">
-        <v>1.399198482504676</v>
+        <v>0.1467812203102001</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3036277226497752</v>
+        <v>0.03185169810273293</v>
       </c>
       <c r="U3" t="n">
-        <v>0.004955838781008305</v>
+        <v>0.000519886258477687</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006208</v>
+        <v>0.006624998659945165</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5614884095623704</v>
+        <v>0.05890226081296706</v>
       </c>
       <c r="I4" t="n">
-        <v>1.899185745227322</v>
+        <v>0.1992317778827147</v>
       </c>
       <c r="J4" t="n">
-        <v>4.464923682174389</v>
+        <v>0.4683874052581232</v>
       </c>
       <c r="K4" t="n">
-        <v>7.337241180170847</v>
+        <v>0.7697043897645381</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894685</v>
+        <v>0.9849566189522114</v>
       </c>
       <c r="M4" t="n">
-        <v>9.89953440294882</v>
+        <v>1.038498653576677</v>
       </c>
       <c r="N4" t="n">
-        <v>9.664145601394052</v>
+        <v>1.013805476753246</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179687</v>
+        <v>0.936413446952977</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938414</v>
+        <v>0.8012634742900949</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.288210368587926</v>
+        <v>0.5547532968795902</v>
       </c>
       <c r="R4" t="n">
-        <v>2.839592713390063</v>
+        <v>0.2978840306553526</v>
       </c>
       <c r="S4" t="n">
-        <v>1.100586177025627</v>
+        <v>0.1154556584646807</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2698359432457197</v>
+        <v>0.02830681245612934</v>
       </c>
       <c r="U4" t="n">
-        <v>0.003444714169094299</v>
+        <v>0.0003613635632697367</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>0.09251611130367679</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141001</v>
+        <v>0.9474806248887802</v>
       </c>
       <c r="I5" t="n">
-        <v>58.5445733255447</v>
+        <v>3.566727381035003</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727436</v>
+        <v>7.852189301760445</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>11.76839629324509</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630671</v>
+        <v>14.59973623455499</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405369</v>
+        <v>16.24501962895175</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338306</v>
+        <v>16.50788103019332</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119867</v>
+        <v>15.58792394841739</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954668</v>
+        <v>13.30393245060786</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>9.990699214544934</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633803</v>
+        <v>5.811515176679593</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>2.108210886332537</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473557</v>
+        <v>0.4049892772318454</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.007401288904294142</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.04950048351498144</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188919</v>
+        <v>0.4780704592104788</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890691</v>
+        <v>1.704292963125458</v>
       </c>
       <c r="J6" t="n">
-        <v>76.7639270839648</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649103</v>
+        <v>7.993242550750316</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>91.88325107529278</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>9.452421277523081</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>6.318693299210614</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034985</v>
+        <v>3.073372125605604</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>0.919449770552396</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372667</v>
+        <v>0.1995216857467892</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.00325661075756457</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.04149954254994849</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644446</v>
+        <v>0.3689686601259059</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492006</v>
+        <v>1.248004425047542</v>
       </c>
       <c r="J7" t="n">
-        <v>48.1592209281358</v>
+        <v>2.934017658281358</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302244</v>
+        <v>4.821492307166742</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246924</v>
+        <v>6.169850171471434</v>
       </c>
       <c r="M7" t="n">
-        <v>106.777606591725</v>
+        <v>6.505241928988743</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666595</v>
+        <v>6.350561815848031</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175849</v>
+        <v>5.865771705150904</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383805</v>
+        <v>5.01918103713195</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678012</v>
+        <v>3.475020785705232</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701166</v>
+        <v>1.865970340473138</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695336</v>
+        <v>0.7232238460750111</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197225</v>
+        <v>0.1773162272588708</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.002263611411815375</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>5.42776745276012</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>17.90888720884599</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>22.21755819470702</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>24.72131435677233</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>23.72136057081218</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>20.24563243411507</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>8.84383625587038</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>3.208229059847513</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>0.616303794162698</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.01126311902524633</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.0753287494713262</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>0.7275171330520189</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>2.593555628727679</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>7.116914878779991</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>12.16394109335885</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>19.08658709192331</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>9.615648792164377</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>4.676990252263571</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>0.3036277226497752</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.004955838781008305</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.06315309310006208</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>0.5614884095623704</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>1.899185745227322</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>4.464923682174389</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>7.337241180170847</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>9.389142586894685</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>9.89953440294882</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>9.664145601394052</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>8.926402650179687</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>7.638079550938414</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>5.288210368587926</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>2.839592713390063</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>1.100586177025627</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>0.2698359432457197</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.003444714169094299</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31756,19 +31758,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L11" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
@@ -31783,13 +31785,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31829,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I12" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K12" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653259</v>
       </c>
       <c r="L12" t="n">
         <v>176.4169820478007</v>
@@ -31856,22 +31858,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I13" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
         <v>79.14039391302239</v>
@@ -31932,16 +31934,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P13" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
@@ -32090,7 +32092,7 @@
         <v>211.31907117367</v>
       </c>
       <c r="O15" t="n">
-        <v>193.3156655923047</v>
+        <v>73.87984549392672</v>
       </c>
       <c r="P15" t="n">
         <v>155.1528646479578</v>
@@ -32315,7 +32317,7 @@
         <v>76.76392708396475</v>
       </c>
       <c r="K18" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653216</v>
       </c>
       <c r="L18" t="n">
         <v>176.4169820478007</v>
@@ -32552,7 +32554,7 @@
         <v>76.76392708396475</v>
       </c>
       <c r="K21" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653216</v>
       </c>
       <c r="L21" t="n">
         <v>176.4169820478007</v>
@@ -32789,13 +32791,13 @@
         <v>76.76392708396475</v>
       </c>
       <c r="K24" t="n">
-        <v>87.78329382423996</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L24" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M24" t="n">
-        <v>205.8702969983122</v>
+        <v>162.4518126576415</v>
       </c>
       <c r="N24" t="n">
         <v>211.31907117367</v>
@@ -33026,7 +33028,7 @@
         <v>76.76392708396475</v>
       </c>
       <c r="K27" t="n">
-        <v>11.76595806653305</v>
+        <v>11.76595806653285</v>
       </c>
       <c r="L27" t="n">
         <v>176.4169820478007</v>
@@ -33269,7 +33271,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M30" t="n">
-        <v>205.8702969983122</v>
+        <v>162.4518126576419</v>
       </c>
       <c r="N30" t="n">
         <v>211.31907117367</v>
@@ -33749,7 +33751,7 @@
         <v>211.31907117367</v>
       </c>
       <c r="O36" t="n">
-        <v>193.3156655923047</v>
+        <v>73.87984549392695</v>
       </c>
       <c r="P36" t="n">
         <v>155.1528646479577</v>
@@ -33910,7 +33912,7 @@
         <v>255.8615389119865</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q38" t="n">
         <v>163.9882055044137</v>
@@ -34699,25 +34701,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>121.9644487350302</v>
+        <v>105.9342716247019</v>
       </c>
       <c r="L2" t="n">
-        <v>204.1123577751702</v>
+        <v>184.2255055845852</v>
       </c>
       <c r="M2" t="n">
-        <v>243.8886146223321</v>
+        <v>221.7606597741147</v>
       </c>
       <c r="N2" t="n">
-        <v>233.0551918837966</v>
+        <v>210.5691835920705</v>
       </c>
       <c r="O2" t="n">
-        <v>174.4233304118708</v>
+        <v>153.1904304101191</v>
       </c>
       <c r="P2" t="n">
-        <v>110.8113448503282</v>
+        <v>92.68955593933616</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.212927593424828</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6.370323552522134</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>127.8998415301111</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>234.0017634719808</v>
       </c>
       <c r="M3" t="n">
-        <v>207.9536917934041</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="O3" t="n">
-        <v>251.2660748322851</v>
+        <v>117.3425372005507</v>
       </c>
       <c r="P3" t="n">
-        <v>198.8728484821096</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,19 +34862,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>36.97916784721082</v>
+        <v>28.57498187926835</v>
       </c>
       <c r="M4" t="n">
-        <v>49.4834113647894</v>
+        <v>40.62237561541726</v>
       </c>
       <c r="N4" t="n">
-        <v>53.79631798062265</v>
+        <v>45.14597785598184</v>
       </c>
       <c r="O4" t="n">
-        <v>33.51153056421936</v>
+        <v>25.52154136099265</v>
       </c>
       <c r="P4" t="n">
-        <v>4.916638815831902</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>115.8239578194293</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>196.4945358150182</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060967</v>
+        <v>235.4123198945115</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>224.4417418455866</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>166.289893789476</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116799</v>
+        <v>103.869644866821</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031299</v>
+        <v>134.6170405889699</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713858</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262939</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="N6" t="n">
-        <v>439.883913335513</v>
+        <v>218.2462714634908</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245899</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>193.94078250313</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713958</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850086</v>
+        <v>33.75987543178757</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535656</v>
+        <v>46.08911889082933</v>
       </c>
       <c r="N7" t="n">
-        <v>148.370846145888</v>
+        <v>50.48273419507662</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>30.45089961919058</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873154</v>
+        <v>2.297740302025438</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>121.9644487350302</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>204.1123577751702</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>243.8886146223321</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>233.0551918837966</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>174.4233304118708</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>110.8113448503282</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>5.212927593424828</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>6.370323552522134</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>138.7877391315785</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>74.61189100715683</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>269.1887005891756</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>79.71116244199196</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>36.97916784721082</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>53.79631798062265</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>33.51153056421936</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>4.916638815831902</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K11" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
         <v>406.5635087530452</v>
@@ -35486,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
@@ -35498,16 +35500,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35723,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K15" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L15" t="n">
         <v>408.7029475713857</v>
@@ -35738,7 +35740,7 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P15" t="n">
         <v>339.6412258735647</v>
@@ -35963,7 +35965,7 @@
         <v>76.01733575770689</v>
       </c>
       <c r="K18" t="n">
-        <v>138.3897561047522</v>
+        <v>138.3897561047518</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713857</v>
@@ -36200,7 +36202,7 @@
         <v>76.01733575770689</v>
       </c>
       <c r="K21" t="n">
-        <v>138.3897561047522</v>
+        <v>138.3897561047518</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
@@ -36437,13 +36439,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M24" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856231</v>
       </c>
       <c r="N24" t="n">
         <v>559.3197334338902</v>
@@ -36674,7 +36676,7 @@
         <v>76.01733575770689</v>
       </c>
       <c r="K27" t="n">
-        <v>138.3897561047526</v>
+        <v>138.3897561047525</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36917,7 +36919,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M30" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856235</v>
       </c>
       <c r="N30" t="n">
         <v>559.3197334338902</v>
@@ -36929,7 +36931,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37157,7 +37159,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>515.9012490932192</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245897</v>
@@ -37385,7 +37387,7 @@
         <v>76.01733575770689</v>
       </c>
       <c r="K36" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37397,7 +37399,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245897</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P36" t="n">
         <v>339.6412258735646</v>
@@ -37558,7 +37560,7 @@
         <v>406.5635087530451</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q38" t="n">
         <v>153.9975062898689</v>
@@ -37622,10 +37624,10 @@
         <v>76.01733575770689</v>
       </c>
       <c r="K39" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L39" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M39" t="n">
         <v>529.4413268262938</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K41" t="n">
         <v>297.2230414343419</v>
@@ -37874,10 +37876,10 @@
         <v>444.5817404245897</v>
       </c>
       <c r="P42" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38035,7 +38037,7 @@
         <v>308.9376163116797</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38096,7 +38098,7 @@
         <v>76.01733575770689</v>
       </c>
       <c r="K45" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L45" t="n">
         <v>408.7029475713857</v>
@@ -38114,7 +38116,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
